--- a/ML/ig/StructureDefinition-Lieu.xlsx
+++ b/ML/ig/StructureDefinition-Lieu.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T15:44:08+00:00</t>
+    <t>2025-10-28T09:35:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Lieu.xlsx
+++ b/ML/ig/StructureDefinition-Lieu.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T09:35:07+00:00</t>
+    <t>2025-10-28T11:41:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Lieu.xlsx
+++ b/ML/ig/StructureDefinition-Lieu.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T11:41:28+00:00</t>
+    <t>2025-10-28T14:16:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Lieu.xlsx
+++ b/ML/ig/StructureDefinition-Lieu.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T14:16:13+00:00</t>
+    <t>2025-10-28T15:15:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Lieu.xlsx
+++ b/ML/ig/StructureDefinition-Lieu.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:15:51+00:00</t>
+    <t>2025-10-29T10:18:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Lieu.xlsx
+++ b/ML/ig/StructureDefinition-Lieu.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T10:18:40+00:00</t>
+    <t>2025-10-29T11:46:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Lieu.xlsx
+++ b/ML/ig/StructureDefinition-Lieu.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T11:46:56+00:00</t>
+    <t>2025-10-29T12:55:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Lieu.xlsx
+++ b/ML/ig/StructureDefinition-Lieu.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T12:55:39+00:00</t>
+    <t>2025-10-29T15:03:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Lieu.xlsx
+++ b/ML/ig/StructureDefinition-Lieu.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T15:03:41+00:00</t>
+    <t>2025-10-30T13:09:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Lieu.xlsx
+++ b/ML/ig/StructureDefinition-Lieu.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T13:09:51+00:00</t>
+    <t>2025-10-30T14:07:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Lieu.xlsx
+++ b/ML/ig/StructureDefinition-Lieu.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T14:07:11+00:00</t>
+    <t>2025-10-30T14:16:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Lieu.xlsx
+++ b/ML/ig/StructureDefinition-Lieu.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T14:16:37+00:00</t>
+    <t>2025-10-30T15:20:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Lieu.xlsx
+++ b/ML/ig/StructureDefinition-Lieu.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T15:20:59+00:00</t>
+    <t>2025-10-30T16:36:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Lieu.xlsx
+++ b/ML/ig/StructureDefinition-Lieu.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T16:36:55+00:00</t>
+    <t>2025-10-30T16:59:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Lieu.xlsx
+++ b/ML/ig/StructureDefinition-Lieu.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T16:59:08+00:00</t>
+    <t>2025-11-03T11:12:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Lieu.xlsx
+++ b/ML/ig/StructureDefinition-Lieu.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T11:12:25+00:00</t>
+    <t>2025-11-03T11:13:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Lieu.xlsx
+++ b/ML/ig/StructureDefinition-Lieu.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T11:13:02+00:00</t>
+    <t>2025-11-03T13:49:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Lieu.xlsx
+++ b/ML/ig/StructureDefinition-Lieu.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="121">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T13:49:33+00:00</t>
+    <t>2025-11-03T18:48:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -347,6 +347,46 @@
   </si>
   <si>
     <t>Adresse(s) de télécommunication du lieu (numéro de téléphone, adresse email, URL, etc.).</t>
+  </si>
+  <si>
+    <t>Lieu.EntiteGeographique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/EntiteGeographique
+</t>
+  </si>
+  <si>
+    <t>Lien vers la classe EntiteGeographique</t>
+  </si>
+  <si>
+    <t>Lieu.LieuRealisationOffre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/LieuRealisationOffre
+</t>
+  </si>
+  <si>
+    <t>Lien vers la classe LieuRealisationOffre</t>
+  </si>
+  <si>
+    <t>Lieu.Agenda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/Agenda
+</t>
+  </si>
+  <si>
+    <t>Lien vers la classe Agenda</t>
+  </si>
+  <si>
+    <t>Lieu.RendezVous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/RendezVous
+</t>
+  </si>
+  <si>
+    <t>Lien vers la classe RendezVous</t>
   </si>
 </sst>
 </file>
@@ -651,7 +691,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ13"/>
+  <dimension ref="A1:AJ17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2001,6 +2041,406 @@
         <v>71</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q14" s="2"/>
+      <c r="R14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K15" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q15" s="2"/>
+      <c r="R15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q16" s="2"/>
+      <c r="R16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q17" s="2"/>
+      <c r="R17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ML/ig/StructureDefinition-Lieu.xlsx
+++ b/ML/ig/StructureDefinition-Lieu.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T18:48:51+00:00</t>
+    <t>2025-11-04T13:35:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Lieu.xlsx
+++ b/ML/ig/StructureDefinition-Lieu.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-04T13:35:30+00:00</t>
+    <t>2025-11-04T14:33:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Lieu.xlsx
+++ b/ML/ig/StructureDefinition-Lieu.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-04T14:33:37+00:00</t>
+    <t>2025-11-05T10:41:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Lieu.xlsx
+++ b/ML/ig/StructureDefinition-Lieu.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-05T10:41:12+00:00</t>
+    <t>2025-11-07T16:48:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Lieu.xlsx
+++ b/ML/ig/StructureDefinition-Lieu.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-07T16:48:20+00:00</t>
+    <t>2025-11-14T16:26:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Lieu.xlsx
+++ b/ML/ig/StructureDefinition-Lieu.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T16:26:13+00:00</t>
+    <t>2025-11-14T16:42:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Lieu.xlsx
+++ b/ML/ig/StructureDefinition-Lieu.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T16:42:42+00:00</t>
+    <t>2025-11-25T14:31:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Lieu.xlsx
+++ b/ML/ig/StructureDefinition-Lieu.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T14:31:44+00:00</t>
+    <t>2025-11-25T14:47:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Lieu.xlsx
+++ b/ML/ig/StructureDefinition-Lieu.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T14:47:14+00:00</t>
+    <t>2025-11-27T15:07:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Lieu.xlsx
+++ b/ML/ig/StructureDefinition-Lieu.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T15:07:49+00:00</t>
+    <t>2025-11-27T17:02:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Lieu.xlsx
+++ b/ML/ig/StructureDefinition-Lieu.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T17:02:40+00:00</t>
+    <t>2025-12-02T09:57:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Lieu.xlsx
+++ b/ML/ig/StructureDefinition-Lieu.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T09:57:01+00:00</t>
+    <t>2025-12-02T14:07:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Lieu.xlsx
+++ b/ML/ig/StructureDefinition-Lieu.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T14:07:59+00:00</t>
+    <t>2025-12-02T14:23:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Lieu.xlsx
+++ b/ML/ig/StructureDefinition-Lieu.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T14:23:57+00:00</t>
+    <t>2025-12-02T14:53:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Lieu.xlsx
+++ b/ML/ig/StructureDefinition-Lieu.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T14:53:18+00:00</t>
+    <t>2025-12-02T15:33:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
